--- a/biology/Zoologie/Hemiphractidae/Hemiphractidae.xlsx
+++ b/biology/Zoologie/Hemiphractidae/Hemiphractidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hemiphractidae sont une famille d'amphibiens[1]. Elle a été créée par Wilhelm Peters (1815-1883) en 1862.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hemiphractidae sont une famille d'amphibiens. Elle a été créée par Wilhelm Peters (1815-1883) en 1862.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des six genres de cette famille se rencontrent en Amérique du Sud et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des six genres de cette famille se rencontrent en Amérique du Sud et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juin 2017) :
 sous-famille Cryptobatrachinae Frost, Grant, Faivovich, Bain, Haas, Haddad, de Sá, Channing, Wilkinson, Donnellan, Raxworthy, Campbell, Blotto, Moler, Drewes, Nussbaum, Lynch, Green &amp; Wheeler, 2006
 genre Cryptobatrachus Ruthven, 1916
 genre Flectonotus Miranda-Ribeiro, 1926
@@ -580,9 +596,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été scindée en trois : Hemiphractidae s.s. (Hemiphractus), Cryptobatrachidae (Cryptobatrachus et Stefania) et Amphignathodontidae (Flectonotus et Gastrotheca) par Frost et al. en 2006[3] puis réunifiée par Guayasamin et al. en 2008[4] avant d'être redécoupée en deux sous-familles par Castroviejo-Fisher et al. en 2015 [5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été scindée en trois : Hemiphractidae s.s. (Hemiphractus), Cryptobatrachidae (Cryptobatrachus et Stefania) et Amphignathodontidae (Flectonotus et Gastrotheca) par Frost et al. en 2006 puis réunifiée par Guayasamin et al. en 2008 avant d'être redécoupée en deux sous-familles par Castroviejo-Fisher et al. en 2015 .
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1862 : Über die Batrachier-Gattung Hemiphractus. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1862, p. 144-152 (texte intégral).</t>
         </is>
